--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnkieF\Desktop\SemanticWebGroupNintendo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21929BA0-B000-4FA1-B495-86FA91BBDEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3843784E-034A-4628-A4EA-9682DFB423EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="336">
   <si>
     <t>type</t>
   </si>
@@ -709,9 +709,6 @@
     <t>l1arh2oerzxmf2e1oqf2</t>
   </si>
   <si>
-    <t>sports</t>
-  </si>
-  <si>
     <t>https://store.nintendo.nl/nl/nintendo-switch-sports-P00086</t>
   </si>
   <si>
@@ -727,9 +724,6 @@
     <t>MNS/NOE/P00086/1.1_ProductTile_NintendoSport_Switch</t>
   </si>
   <si>
-    <t>zelda_kingdom</t>
-  </si>
-  <si>
     <t>https://store.nintendo.nl/nl/nintendo-switch-oled-model-the-legend-of-zelda-tears-of-the-kingdom-edition-the-legend-of-zelda-tears-of-the-kingdom-bundel-B00396</t>
   </si>
   <si>
@@ -1037,6 +1031,15 @@
   </si>
   <si>
     <t>https://store.nintendo.nl/nl/metroid-prime-remastered-P00105</t>
+  </si>
+  <si>
+    <t>switch_bundle,new_product,franchise</t>
+  </si>
+  <si>
+    <t>switch_sports</t>
+  </si>
+  <si>
+    <t>switch_zelda_kingdom</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1442,7 @@
   <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2466,7 +2469,7 @@
         <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E18" t="s">
         <v>23</v>
@@ -2481,7 +2484,7 @@
         <v>26</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J18" t="s">
         <v>28</v>
@@ -2490,7 +2493,7 @@
         <v>29</v>
       </c>
       <c r="L18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M18" t="s">
         <v>30</v>
@@ -2502,7 +2505,7 @@
         <v>39.99</v>
       </c>
       <c r="P18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="Q18" t="s">
         <v>32</v>
@@ -2511,7 +2514,7 @@
         <v>124</v>
       </c>
       <c r="S18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -3637,32 +3640,32 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
+        <v>334</v>
+      </c>
+      <c r="C38" t="s">
         <v>225</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>226</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" t="s">
         <v>227</v>
       </c>
-      <c r="E38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" t="s">
         <v>228</v>
       </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" t="s">
-        <v>229</v>
-      </c>
       <c r="J38" t="s">
         <v>28</v>
       </c>
@@ -3670,7 +3673,7 @@
         <v>29</v>
       </c>
       <c r="L38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M38" t="s">
         <v>30</v>
@@ -3682,46 +3685,46 @@
         <v>39.99</v>
       </c>
       <c r="P38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q38" t="s">
         <v>32</v>
       </c>
       <c r="R38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s">
+        <v>335</v>
+      </c>
+      <c r="C39" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" t="s">
         <v>231</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
         <v>232</v>
       </c>
-      <c r="D39" t="s">
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" t="s">
         <v>233</v>
       </c>
-      <c r="E39" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" t="s">
-        <v>234</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" t="s">
-        <v>235</v>
-      </c>
       <c r="J39" t="s">
         <v>28</v>
       </c>
@@ -3729,7 +3732,7 @@
         <v>29</v>
       </c>
       <c r="L39" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M39" t="s">
         <v>30</v>
@@ -3741,16 +3744,16 @@
         <v>429.99</v>
       </c>
       <c r="P39" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q39" t="s">
         <v>32</v>
       </c>
       <c r="R39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="S39" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -3758,29 +3761,29 @@
         <v>99</v>
       </c>
       <c r="B40" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D40" t="s">
         <v>237</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
         <v>238</v>
       </c>
-      <c r="D40" t="s">
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" t="s">
         <v>239</v>
       </c>
-      <c r="E40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" t="s">
-        <v>240</v>
-      </c>
-      <c r="G40" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" t="s">
-        <v>241</v>
-      </c>
       <c r="J40" t="s">
         <v>28</v>
       </c>
@@ -3788,7 +3791,7 @@
         <v>29</v>
       </c>
       <c r="L40" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M40" t="s">
         <v>30</v>
@@ -3800,16 +3803,16 @@
         <v>59.99</v>
       </c>
       <c r="P40" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q40" t="s">
         <v>32</v>
       </c>
       <c r="R40" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="S40" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -3817,29 +3820,29 @@
         <v>99</v>
       </c>
       <c r="B41" t="s">
+        <v>241</v>
+      </c>
+      <c r="C41" t="s">
+        <v>242</v>
+      </c>
+      <c r="D41" t="s">
         <v>243</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" t="s">
         <v>244</v>
       </c>
-      <c r="D41" t="s">
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s">
         <v>245</v>
       </c>
-      <c r="E41" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" t="s">
-        <v>246</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" t="s">
-        <v>247</v>
-      </c>
       <c r="J41" t="s">
         <v>28</v>
       </c>
@@ -3847,7 +3850,7 @@
         <v>29</v>
       </c>
       <c r="L41" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M41" t="s">
         <v>30</v>
@@ -3859,16 +3862,16 @@
         <v>59.99</v>
       </c>
       <c r="P41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q41" t="s">
         <v>32</v>
       </c>
       <c r="R41" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="S41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -3876,29 +3879,29 @@
         <v>111</v>
       </c>
       <c r="B42" t="s">
+        <v>247</v>
+      </c>
+      <c r="C42" t="s">
+        <v>248</v>
+      </c>
+      <c r="D42" t="s">
         <v>249</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
         <v>250</v>
       </c>
-      <c r="D42" t="s">
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" t="s">
         <v>251</v>
       </c>
-      <c r="E42" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" t="s">
-        <v>252</v>
-      </c>
-      <c r="G42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" t="s">
-        <v>253</v>
-      </c>
       <c r="J42" t="s">
         <v>28</v>
       </c>
@@ -3906,7 +3909,7 @@
         <v>29</v>
       </c>
       <c r="L42" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M42" t="s">
         <v>30</v>
@@ -3918,16 +3921,16 @@
         <v>59.99</v>
       </c>
       <c r="P42" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Q42" t="s">
         <v>32</v>
       </c>
       <c r="R42" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S42" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -3935,29 +3938,29 @@
         <v>92</v>
       </c>
       <c r="B43" t="s">
+        <v>253</v>
+      </c>
+      <c r="C43" t="s">
+        <v>254</v>
+      </c>
+      <c r="D43" t="s">
         <v>255</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
         <v>256</v>
       </c>
-      <c r="D43" t="s">
+      <c r="G43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" t="s">
         <v>257</v>
       </c>
-      <c r="E43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" t="s">
-        <v>258</v>
-      </c>
-      <c r="G43" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" t="s">
-        <v>26</v>
-      </c>
-      <c r="I43" t="s">
-        <v>259</v>
-      </c>
       <c r="J43" t="s">
         <v>28</v>
       </c>
@@ -3965,7 +3968,7 @@
         <v>29</v>
       </c>
       <c r="L43" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M43" t="s">
         <v>30</v>
@@ -3977,46 +3980,46 @@
         <v>59.99</v>
       </c>
       <c r="P43" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q43" t="s">
         <v>32</v>
       </c>
       <c r="R43" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S43" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" t="s">
+        <v>260</v>
+      </c>
+      <c r="B44" t="s">
+        <v>259</v>
+      </c>
+      <c r="C44" t="s">
+        <v>261</v>
+      </c>
+      <c r="D44" t="s">
         <v>262</v>
       </c>
-      <c r="B44" t="s">
-        <v>261</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="s">
         <v>263</v>
       </c>
-      <c r="D44" t="s">
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" t="s">
         <v>264</v>
       </c>
-      <c r="E44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" t="s">
-        <v>265</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" t="s">
-        <v>266</v>
-      </c>
       <c r="J44" t="s">
         <v>28</v>
       </c>
@@ -4024,7 +4027,7 @@
         <v>29</v>
       </c>
       <c r="L44" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M44" t="s">
         <v>30</v>
@@ -4036,46 +4039,46 @@
         <v>59.99</v>
       </c>
       <c r="P44" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q44" t="s">
         <v>32</v>
       </c>
       <c r="R44" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S44" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" t="s">
+        <v>267</v>
+      </c>
+      <c r="B45" t="s">
+        <v>266</v>
+      </c>
+      <c r="C45" t="s">
+        <v>268</v>
+      </c>
+      <c r="D45" t="s">
         <v>269</v>
       </c>
-      <c r="B45" t="s">
-        <v>268</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" t="s">
         <v>270</v>
       </c>
-      <c r="D45" t="s">
+      <c r="G45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" t="s">
         <v>271</v>
       </c>
-      <c r="E45" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" t="s">
-        <v>272</v>
-      </c>
-      <c r="G45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H45" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" t="s">
-        <v>273</v>
-      </c>
       <c r="J45" t="s">
         <v>28</v>
       </c>
@@ -4083,7 +4086,7 @@
         <v>29</v>
       </c>
       <c r="L45" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M45" t="s">
         <v>30</v>
@@ -4095,46 +4098,46 @@
         <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q45" t="s">
         <v>32</v>
       </c>
       <c r="R45" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S45" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B46" t="s">
+        <v>273</v>
+      </c>
+      <c r="C46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D46" t="s">
         <v>276</v>
       </c>
-      <c r="B46" t="s">
-        <v>275</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
         <v>277</v>
       </c>
-      <c r="D46" t="s">
+      <c r="G46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" t="s">
         <v>278</v>
       </c>
-      <c r="E46" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" t="s">
-        <v>279</v>
-      </c>
-      <c r="G46" t="s">
-        <v>25</v>
-      </c>
-      <c r="H46" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" t="s">
-        <v>280</v>
-      </c>
       <c r="J46" t="s">
         <v>28</v>
       </c>
@@ -4142,7 +4145,7 @@
         <v>29</v>
       </c>
       <c r="L46" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M46" t="s">
         <v>30</v>
@@ -4154,46 +4157,46 @@
         <v>19.989999999999998</v>
       </c>
       <c r="P46" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q46" t="s">
         <v>32</v>
       </c>
       <c r="R46" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S46" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B47" t="s">
+        <v>280</v>
+      </c>
+      <c r="C47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D47" t="s">
         <v>283</v>
       </c>
-      <c r="B47" t="s">
-        <v>282</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" t="s">
         <v>284</v>
       </c>
-      <c r="D47" t="s">
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" t="s">
         <v>285</v>
       </c>
-      <c r="E47" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" t="s">
-        <v>286</v>
-      </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" t="s">
-        <v>287</v>
-      </c>
       <c r="J47" t="s">
         <v>28</v>
       </c>
@@ -4201,7 +4204,7 @@
         <v>29</v>
       </c>
       <c r="L47" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M47" t="s">
         <v>30</v>
@@ -4213,46 +4216,46 @@
         <v>0</v>
       </c>
       <c r="P47" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q47" t="s">
         <v>32</v>
       </c>
       <c r="R47" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="S47" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B48" t="s">
+        <v>287</v>
+      </c>
+      <c r="C48" t="s">
+        <v>288</v>
+      </c>
+      <c r="D48" t="s">
         <v>289</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" t="s">
         <v>290</v>
       </c>
-      <c r="D48" t="s">
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" t="s">
         <v>291</v>
       </c>
-      <c r="E48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" t="s">
-        <v>292</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" t="s">
-        <v>26</v>
-      </c>
-      <c r="I48" t="s">
-        <v>293</v>
-      </c>
       <c r="J48" t="s">
         <v>28</v>
       </c>
@@ -4260,7 +4263,7 @@
         <v>29</v>
       </c>
       <c r="L48" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M48" t="s">
         <v>30</v>
@@ -4272,46 +4275,46 @@
         <v>0</v>
       </c>
       <c r="P48" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q48" t="s">
         <v>32</v>
       </c>
       <c r="R48" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="S48" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" t="s">
+        <v>294</v>
+      </c>
+      <c r="B49" t="s">
+        <v>293</v>
+      </c>
+      <c r="C49" t="s">
+        <v>295</v>
+      </c>
+      <c r="D49" t="s">
         <v>296</v>
       </c>
-      <c r="B49" t="s">
-        <v>295</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" t="s">
         <v>297</v>
       </c>
-      <c r="D49" t="s">
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" t="s">
         <v>298</v>
       </c>
-      <c r="E49" t="s">
-        <v>23</v>
-      </c>
-      <c r="F49" t="s">
-        <v>299</v>
-      </c>
-      <c r="G49" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" t="s">
-        <v>26</v>
-      </c>
-      <c r="I49" t="s">
-        <v>300</v>
-      </c>
       <c r="J49" t="s">
         <v>28</v>
       </c>
@@ -4319,7 +4322,7 @@
         <v>29</v>
       </c>
       <c r="L49" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M49" t="s">
         <v>30</v>
@@ -4331,46 +4334,46 @@
         <v>17.489999999999998</v>
       </c>
       <c r="P49" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Q49" t="s">
         <v>32</v>
       </c>
       <c r="R49" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S49" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B50" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C50" t="s">
+        <v>300</v>
+      </c>
+      <c r="D50" t="s">
+        <v>301</v>
+      </c>
+      <c r="E50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" t="s">
         <v>302</v>
       </c>
-      <c r="D50" t="s">
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" t="s">
         <v>303</v>
       </c>
-      <c r="E50" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" t="s">
-        <v>304</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I50" t="s">
-        <v>305</v>
-      </c>
       <c r="J50" t="s">
         <v>28</v>
       </c>
@@ -4378,7 +4381,7 @@
         <v>29</v>
       </c>
       <c r="L50" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M50" t="s">
         <v>30</v>
@@ -4390,46 +4393,46 @@
         <v>0</v>
       </c>
       <c r="P50" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q50" t="s">
         <v>32</v>
       </c>
       <c r="R50" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="S50" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B51" t="s">
+        <v>305</v>
+      </c>
+      <c r="C51" t="s">
+        <v>306</v>
+      </c>
+      <c r="D51" t="s">
         <v>307</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" t="s">
         <v>308</v>
       </c>
-      <c r="D51" t="s">
+      <c r="G51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" t="s">
         <v>309</v>
       </c>
-      <c r="E51" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" t="s">
-        <v>310</v>
-      </c>
-      <c r="G51" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" t="s">
-        <v>311</v>
-      </c>
       <c r="J51" t="s">
         <v>28</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>29</v>
       </c>
       <c r="L51" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M51" t="s">
         <v>30</v>
@@ -4449,46 +4452,46 @@
         <v>0</v>
       </c>
       <c r="P51" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q51" t="s">
         <v>32</v>
       </c>
       <c r="R51" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S51" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" t="s">
+        <v>312</v>
+      </c>
+      <c r="B52" t="s">
+        <v>311</v>
+      </c>
+      <c r="C52" t="s">
+        <v>313</v>
+      </c>
+      <c r="D52" t="s">
         <v>314</v>
       </c>
-      <c r="B52" t="s">
-        <v>313</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" t="s">
         <v>315</v>
       </c>
-      <c r="D52" t="s">
+      <c r="G52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" t="s">
         <v>316</v>
       </c>
-      <c r="E52" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" t="s">
-        <v>317</v>
-      </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
-      <c r="H52" t="s">
-        <v>26</v>
-      </c>
-      <c r="I52" t="s">
-        <v>318</v>
-      </c>
       <c r="J52" t="s">
         <v>28</v>
       </c>
@@ -4496,7 +4499,7 @@
         <v>29</v>
       </c>
       <c r="L52" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M52" t="s">
         <v>30</v>
@@ -4508,46 +4511,46 @@
         <v>0</v>
       </c>
       <c r="P52" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q52" t="s">
         <v>32</v>
       </c>
       <c r="R52" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="S52" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B53" t="s">
+        <v>318</v>
+      </c>
+      <c r="C53" t="s">
+        <v>319</v>
+      </c>
+      <c r="D53" t="s">
         <v>320</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" t="s">
         <v>321</v>
       </c>
-      <c r="D53" t="s">
+      <c r="G53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" t="s">
         <v>322</v>
       </c>
-      <c r="E53" t="s">
-        <v>23</v>
-      </c>
-      <c r="F53" t="s">
-        <v>323</v>
-      </c>
-      <c r="G53" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" t="s">
-        <v>26</v>
-      </c>
-      <c r="I53" t="s">
-        <v>324</v>
-      </c>
       <c r="J53" t="s">
         <v>28</v>
       </c>
@@ -4555,7 +4558,7 @@
         <v>29</v>
       </c>
       <c r="L53" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M53" t="s">
         <v>30</v>
@@ -4567,46 +4570,46 @@
         <v>24.99</v>
       </c>
       <c r="P53" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Q53" t="s">
         <v>32</v>
       </c>
       <c r="R53" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="S53" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B54" t="s">
+        <v>324</v>
+      </c>
+      <c r="C54" t="s">
+        <v>325</v>
+      </c>
+      <c r="D54" t="s">
         <v>326</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" t="s">
         <v>327</v>
       </c>
-      <c r="D54" t="s">
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" t="s">
         <v>328</v>
       </c>
-      <c r="E54" t="s">
-        <v>23</v>
-      </c>
-      <c r="F54" t="s">
-        <v>329</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54" t="s">
-        <v>330</v>
-      </c>
       <c r="J54" t="s">
         <v>28</v>
       </c>
@@ -4614,7 +4617,7 @@
         <v>29</v>
       </c>
       <c r="L54" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M54" t="s">
         <v>30</v>
@@ -4626,16 +4629,16 @@
         <v>24.99</v>
       </c>
       <c r="P54" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q54" t="s">
         <v>32</v>
       </c>
       <c r="R54" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="S54" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnkieF\Desktop\SemanticWebGroupNintendo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3843784E-034A-4628-A4EA-9682DFB423EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448B02D8-D3C9-4213-AC4C-133A8FB40D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14655" yWindow="3165" windowWidth="22290" windowHeight="16425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="335">
   <si>
     <t>type</t>
   </si>
@@ -833,9 +833,6 @@
   </si>
   <si>
     <t>kirby_mousemat</t>
-  </si>
-  <si>
-    <t>merchandise,franchise</t>
   </si>
   <si>
     <t>https://store.nintendo.nl/nl/kirbys-return-to-dream-land-deluxe-muismat-000000000010011641</t>
@@ -1131,11 +1128,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1441,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2469,7 +2466,7 @@
         <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E18" t="s">
         <v>23</v>
@@ -2483,8 +2480,8 @@
       <c r="H18" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>331</v>
+      <c r="I18" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="J18" t="s">
         <v>28</v>
@@ -2493,7 +2490,7 @@
         <v>29</v>
       </c>
       <c r="L18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M18" t="s">
         <v>30</v>
@@ -2505,7 +2502,7 @@
         <v>39.99</v>
       </c>
       <c r="P18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q18" t="s">
         <v>32</v>
@@ -2514,7 +2511,7 @@
         <v>124</v>
       </c>
       <c r="S18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -3643,7 +3640,7 @@
         <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C38" t="s">
         <v>225</v>
@@ -3699,10 +3696,10 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B39" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C39" t="s">
         <v>230</v>
@@ -4053,32 +4050,32 @@
     </row>
     <row r="45" spans="1:19">
       <c r="A45" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B45" t="s">
         <v>266</v>
       </c>
       <c r="C45" t="s">
+        <v>267</v>
+      </c>
+      <c r="D45" t="s">
         <v>268</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" t="s">
         <v>269</v>
       </c>
-      <c r="E45" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" t="s">
         <v>270</v>
       </c>
-      <c r="G45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H45" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" t="s">
-        <v>271</v>
-      </c>
       <c r="J45" t="s">
         <v>28</v>
       </c>
@@ -4086,7 +4083,7 @@
         <v>29</v>
       </c>
       <c r="L45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M45" t="s">
         <v>30</v>
@@ -4098,46 +4095,46 @@
         <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q45" t="s">
         <v>32</v>
       </c>
       <c r="R45" t="s">
+        <v>271</v>
+      </c>
+      <c r="S45" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B46" t="s">
         <v>272</v>
       </c>
-      <c r="S45" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
-      <c r="A46" s="4" t="s">
+      <c r="C46" t="s">
         <v>274</v>
       </c>
-      <c r="B46" t="s">
-        <v>273</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>275</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
         <v>276</v>
       </c>
-      <c r="E46" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" t="s">
         <v>277</v>
       </c>
-      <c r="G46" t="s">
-        <v>25</v>
-      </c>
-      <c r="H46" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" t="s">
-        <v>278</v>
-      </c>
       <c r="J46" t="s">
         <v>28</v>
       </c>
@@ -4145,7 +4142,7 @@
         <v>29</v>
       </c>
       <c r="L46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M46" t="s">
         <v>30</v>
@@ -4157,46 +4154,46 @@
         <v>19.989999999999998</v>
       </c>
       <c r="P46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q46" t="s">
         <v>32</v>
       </c>
       <c r="R46" t="s">
+        <v>278</v>
+      </c>
+      <c r="S46" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B47" t="s">
         <v>279</v>
       </c>
-      <c r="S46" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
-      <c r="A47" s="3" t="s">
+      <c r="C47" t="s">
         <v>281</v>
       </c>
-      <c r="B47" t="s">
-        <v>280</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>282</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" t="s">
         <v>283</v>
       </c>
-      <c r="E47" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" t="s">
         <v>284</v>
       </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" t="s">
-        <v>285</v>
-      </c>
       <c r="J47" t="s">
         <v>28</v>
       </c>
@@ -4204,7 +4201,7 @@
         <v>29</v>
       </c>
       <c r="L47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M47" t="s">
         <v>30</v>
@@ -4216,46 +4213,46 @@
         <v>0</v>
       </c>
       <c r="P47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q47" t="s">
         <v>32</v>
       </c>
       <c r="R47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B48" t="s">
+        <v>286</v>
+      </c>
+      <c r="C48" t="s">
         <v>287</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>288</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" t="s">
         <v>289</v>
       </c>
-      <c r="E48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" t="s">
         <v>290</v>
       </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" t="s">
-        <v>26</v>
-      </c>
-      <c r="I48" t="s">
-        <v>291</v>
-      </c>
       <c r="J48" t="s">
         <v>28</v>
       </c>
@@ -4263,7 +4260,7 @@
         <v>29</v>
       </c>
       <c r="L48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M48" t="s">
         <v>30</v>
@@ -4275,46 +4272,46 @@
         <v>0</v>
       </c>
       <c r="P48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q48" t="s">
         <v>32</v>
       </c>
       <c r="R48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" t="s">
+        <v>293</v>
+      </c>
+      <c r="B49" t="s">
+        <v>292</v>
+      </c>
+      <c r="C49" t="s">
         <v>294</v>
       </c>
-      <c r="B49" t="s">
-        <v>293</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>295</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" t="s">
         <v>296</v>
       </c>
-      <c r="E49" t="s">
-        <v>23</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" t="s">
         <v>297</v>
       </c>
-      <c r="G49" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" t="s">
-        <v>26</v>
-      </c>
-      <c r="I49" t="s">
-        <v>298</v>
-      </c>
       <c r="J49" t="s">
         <v>28</v>
       </c>
@@ -4322,7 +4319,7 @@
         <v>29</v>
       </c>
       <c r="L49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M49" t="s">
         <v>30</v>
@@ -4334,46 +4331,46 @@
         <v>17.489999999999998</v>
       </c>
       <c r="P49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q49" t="s">
         <v>32</v>
       </c>
       <c r="R49" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C50" t="s">
+        <v>299</v>
+      </c>
+      <c r="D50" t="s">
         <v>300</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" t="s">
         <v>301</v>
       </c>
-      <c r="E50" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" t="s">
         <v>302</v>
       </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I50" t="s">
-        <v>303</v>
-      </c>
       <c r="J50" t="s">
         <v>28</v>
       </c>
@@ -4381,7 +4378,7 @@
         <v>29</v>
       </c>
       <c r="L50" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M50" t="s">
         <v>30</v>
@@ -4393,46 +4390,46 @@
         <v>0</v>
       </c>
       <c r="P50" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q50" t="s">
         <v>32</v>
       </c>
       <c r="R50" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S50" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B51" t="s">
+        <v>304</v>
+      </c>
+      <c r="C51" t="s">
         <v>305</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>306</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" t="s">
         <v>307</v>
       </c>
-      <c r="E51" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" t="s">
         <v>308</v>
       </c>
-      <c r="G51" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" t="s">
-        <v>309</v>
-      </c>
       <c r="J51" t="s">
         <v>28</v>
       </c>
@@ -4440,7 +4437,7 @@
         <v>29</v>
       </c>
       <c r="L51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M51" t="s">
         <v>30</v>
@@ -4452,46 +4449,46 @@
         <v>0</v>
       </c>
       <c r="P51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q51" t="s">
         <v>32</v>
       </c>
       <c r="R51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" t="s">
+        <v>311</v>
+      </c>
+      <c r="B52" t="s">
+        <v>310</v>
+      </c>
+      <c r="C52" t="s">
         <v>312</v>
       </c>
-      <c r="B52" t="s">
-        <v>311</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>313</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" t="s">
         <v>314</v>
       </c>
-      <c r="E52" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" t="s">
         <v>315</v>
       </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
-      <c r="H52" t="s">
-        <v>26</v>
-      </c>
-      <c r="I52" t="s">
-        <v>316</v>
-      </c>
       <c r="J52" t="s">
         <v>28</v>
       </c>
@@ -4499,7 +4496,7 @@
         <v>29</v>
       </c>
       <c r="L52" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M52" t="s">
         <v>30</v>
@@ -4511,46 +4508,46 @@
         <v>0</v>
       </c>
       <c r="P52" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q52" t="s">
         <v>32</v>
       </c>
       <c r="R52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S52" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B53" t="s">
+        <v>317</v>
+      </c>
+      <c r="C53" t="s">
         <v>318</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>319</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" t="s">
         <v>320</v>
       </c>
-      <c r="E53" t="s">
-        <v>23</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" t="s">
         <v>321</v>
       </c>
-      <c r="G53" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" t="s">
-        <v>26</v>
-      </c>
-      <c r="I53" t="s">
-        <v>322</v>
-      </c>
       <c r="J53" t="s">
         <v>28</v>
       </c>
@@ -4558,7 +4555,7 @@
         <v>29</v>
       </c>
       <c r="L53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M53" t="s">
         <v>30</v>
@@ -4570,46 +4567,46 @@
         <v>24.99</v>
       </c>
       <c r="P53" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q53" t="s">
         <v>32</v>
       </c>
       <c r="R53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S53" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B54" t="s">
+        <v>323</v>
+      </c>
+      <c r="C54" t="s">
         <v>324</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>325</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" t="s">
         <v>326</v>
       </c>
-      <c r="E54" t="s">
-        <v>23</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" t="s">
         <v>327</v>
       </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54" t="s">
-        <v>328</v>
-      </c>
       <c r="J54" t="s">
         <v>28</v>
       </c>
@@ -4617,7 +4614,7 @@
         <v>29</v>
       </c>
       <c r="L54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M54" t="s">
         <v>30</v>
@@ -4629,16 +4626,16 @@
         <v>24.99</v>
       </c>
       <c r="P54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q54" t="s">
         <v>32</v>
       </c>
       <c r="R54" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnkieF\Desktop\SemanticWebGroupNintendo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448B02D8-D3C9-4213-AC4C-133A8FB40D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E82F2C-4A5E-4E28-8C72-55D232084FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14655" yWindow="3165" windowWidth="22290" windowHeight="16425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1033,10 +1033,10 @@
     <t>switch_bundle,new_product,franchise</t>
   </si>
   <si>
-    <t>switch_sports</t>
-  </si>
-  <si>
     <t>switch_zelda_kingdom</t>
+  </si>
+  <si>
+    <t>sports</t>
   </si>
 </sst>
 </file>
@@ -1438,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3637,10 +3637,10 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C38" t="s">
         <v>225</v>
@@ -3699,7 +3699,7 @@
         <v>332</v>
       </c>
       <c r="B39" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C39" t="s">
         <v>230</v>
